--- a/result_of_analysis.xlsx
+++ b/result_of_analysis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\PythonScripts\MortageAnalysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EB4EB1-AEE6-46F7-9C69-7538F3E615E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Home Price</t>
   </si>
@@ -58,7 +52,7 @@
     <t>Loan Amount</t>
   </si>
   <si>
-    <t>Monthly payment 30 Years fixed loan</t>
+    <t>Monthly payment 30 Years Toward just home loan</t>
   </si>
   <si>
     <t>Monthly payment for Property tax</t>
@@ -70,25 +64,26 @@
     <t>Monthly payment for HOA</t>
   </si>
   <si>
-    <t>Monthly payment Total per month</t>
+    <t>Monthly payment for 30 year fixed loan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -104,24 +99,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -409,25 +396,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>300000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -443,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -460,126 +450,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>15000</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>30000</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>45000</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>285000</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>270000</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>255000</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>240000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>1240.3380093562901</v>
-      </c>
-      <c r="C7">
-        <v>1175.0570614954329</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="n">
+        <v>1240.33800935629</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1175.057061495433</v>
+      </c>
+      <c r="D7" t="n">
         <v>1109.776113634575</v>
       </c>
-      <c r="E7">
-        <v>1044.4951657737181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="n">
+        <v>1044.495165773718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>750</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>750</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>750</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>105</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>105</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>105</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>40</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>2135.3380093562901</v>
-      </c>
-      <c r="C11">
-        <v>2070.0570614954331</v>
-      </c>
-      <c r="D11">
+      <c r="B11" t="n">
+        <v>2135.33800935629</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2070.057061495433</v>
+      </c>
+      <c r="D11" t="n">
         <v>2004.776113634575</v>
       </c>
-      <c r="E11">
-        <v>1939.4951657737181</v>
+      <c r="E11" t="n">
+        <v>1939.495165773718</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>